--- a/Linkdin_profiles/London.xlsx
+++ b/Linkdin_profiles/London.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/robyoung101</t>
+          <t>https://uk.linkedin.com/in/pbrian</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/haik-ghulyan-a30475180</t>
+          <t>https://uk.linkedin.com/in/pauljgarner</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://botreetechnologies.medium.com/top-python-development-companies-b6d56a0c5757</t>
+          <t>https://il.linkedin.com/in/omer-london-6b71a5119</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.codementor.io/freelance-rates/python-developers</t>
+          <t>https://uk.linkedin.com/in/joshuasrowe</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://shecancode.io/blog/software-developer-or-engineer-whats-the-difference</t>
+          <t>https://uk.linkedin.com/in/ziyad-soobhan-019b0355</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://brainstation.io/career-guides/what-does-a-python-developer-do</t>
+          <t>https://uk.linkedin.com/in/nestor-arocha-5869a010</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/felix-tillyard</t>
+          <t>https://uk.linkedin.com/in/nicolai-negru</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/mahalakshmi-subramani-01502569</t>
+          <t>https://uk.linkedin.com/in/filippo-di-paola-74751a92</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/kishan-patel-b642415a</t>
+          <t>https://uk.linkedin.com/in/jaewon-lee-61a3a8175</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/pauljgarner</t>
+          <t>https://uk.linkedin.com/in/darren-frimpong-le-brun-56391a18a</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/kingsley-ejeutanni-40857b148</t>
+          <t>https://uk.linkedin.com/in/sravan-jinna-79109550</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/anindita-palit-9b833812</t>
+          <t>https://uk.linkedin.com/in/oliver-dawkins</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/wilsonlotara</t>
+          <t>https://uk.linkedin.com/in/noel-berry-41bb3977</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/ndgevans</t>
+          <t>https://uk.linkedin.com/in/zoltan-kozma</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://il.linkedin.com/in/omer-london-6b71a5119</t>
+          <t>https://uk.linkedin.com/in/thiagopiccioni/en</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/robertweglarek</t>
+          <t>https://uk.linkedin.com/in/martina-valogia-bb117639</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/david-edwards-data-analyst</t>
+          <t>https://uk.linkedin.com/in/kayalvizhi-eswaran</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/ziyad-soobhan-019b0355</t>
+          <t>https://uk.linkedin.com/in/jayshri-verma-9438621bb</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/gavin-lee-goodship-2a2498187</t>
+          <t>https://uk.linkedin.com/in/alessandrodenoia</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/nicolai-negru</t>
+          <t>https://uk.linkedin.com/in/samir-malik-86430819</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/joshuasrowe</t>
+          <t>https://uk.linkedin.com/in/amxelemara</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/noel-berry-41bb3977</t>
+          <t>https://uk.linkedin.com/in/ahmed-hashi-7830941a8</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/martin-mi%C5%A1kuf</t>
+          <t>https://uk.linkedin.com/in/fabianblaj</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/sravan-jinna-79109550</t>
+          <t>https://uk.linkedin.com/in/python-developer</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/oliver-dawkins</t>
+          <t>https://uk.linkedin.com/in/teodor-scorpan</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/filippo-di-paola-74751a92</t>
+          <t>https://uk.linkedin.com/in/ganesan-selvaraj-6121041a2</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/nestor-arocha-5869a010</t>
+          <t>https://uk.linkedin.com/in/lucy-meyler</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/harry-kitchener</t>
+          <t>https://uk.linkedin.com/in/henry-zheng-7a849b208</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/jaewon-lee-61a3a8175</t>
+          <t>https://uk.linkedin.com/in/ushkarev</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/thiagopiccioni/en</t>
+          <t>https://uk.linkedin.com/in/islombek-murotaliev-4a5b10139</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/john-garner-78030a1</t>
+          <t>https://uk.linkedin.com/in/scott-johnson-216628141</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/amxelemara</t>
+          <t>https://uk.linkedin.com/in/l%C3%A9o-tomas-053976197</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/zoltan-kozma</t>
+          <t>https://uk.linkedin.com/in/deepak-mathur-3b507627</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/scott-white-6a377a5a</t>
+          <t>https://uk.linkedin.com/in/maureen-i-8b23101bb?trk=public_profile_samename-profile</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/martina-valogia-bb117639</t>
+          <t>https://uk.linkedin.com/in/monali-g-092b2558</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/ushkarev</t>
+          <t>https://uk.linkedin.com/in/nabir-uddin-0b909521b</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/gkdogar123</t>
+          <t>https://uk.linkedin.com/in/david-da-costa</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/samuel-wk-emery</t>
+          <t>https://uk.linkedin.com/in/edward-udale</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/manishasshetty</t>
+          <t>https://uk.linkedin.com/in/reubenosborne</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/edward-udale</t>
+          <t>https://uk.linkedin.com/in/aigul-djon</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/aigul-djon</t>
+          <t>https://uk.linkedin.com/in/samuel-wk-emery</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/pbrian</t>
+          <t>https://uk.linkedin.com/in/abbas123456</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/jayshri-verma-9438621bb</t>
+          <t>https://uk.linkedin.com/in/joshua-shallow-4887a660</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/alessandrodenoia</t>
+          <t>https://uk.linkedin.com/in/shaunick-mistry-723aa052</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/kayalvizhi-eswaran</t>
+          <t>https://uk.linkedin.com/in/ahmedbafadal</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/nabir-uddin-0b909521b</t>
+          <t>https://za.linkedin.com/in/antonio-london-7415562a</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/samir-malik-86430819</t>
+          <t>https://uk.linkedin.com/in/nik-sarychev</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/darren-frimpong-le-brun-56391a18a</t>
+          <t>https://uk.linkedin.com/in/michaelrobinson5</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/ahmed-hashi-7830941a8</t>
+          <t>https://uk.linkedin.com/in/ash-isbitt-336888156</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/moshtaba-mustan-</t>
+          <t>https://uk.linkedin.com/in/henri-woodcock</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/hester-leone-costa-167124198</t>
+          <t>https://uk.linkedin.com/in/mgadikar</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/python-developer</t>
+          <t>https://uk.linkedin.com/in/joe-gasewicz-0291451a7</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/teodor-scorpan</t>
+          <t>https://uk.linkedin.com/in/sean-will</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/fabianblaj</t>
+          <t>https://uk.linkedin.com/in/elena-onose</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/ganesan-selvaraj-6121041a2</t>
+          <t>https://uk.linkedin.com/in/kie-woo-nam</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/lucy-meyler</t>
+          <t>https://uk.linkedin.com/in/salimfadhley</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/henry-zheng-7a849b208</t>
+          <t>https://uk.linkedin.com/in/natalia-kapralova-84493718</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/islombek-murotaliev-4a5b10139</t>
+          <t>https://uk.linkedin.com/in/beltramiester</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/deepak-mathur-3b507627</t>
+          <t>https://uk.linkedin.com/in/jakub-hudak-97739ba7</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/sean-will</t>
+          <t>https://uk.linkedin.com/in/ramis-karamatov-a40b925b</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/scott-johnson-216628141</t>
+          <t>https://uk.linkedin.com/in/singletoned</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/l%C3%A9o-tomas-053976197</t>
+          <t>https://uk.linkedin.com/in/dinesh-samtani-1906775</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/monali-g-092b2558</t>
+          <t>https://uk.linkedin.com/in/joseph-houghton</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/maureen-i-8b23101bb?trk=public_profile_samename-profile</t>
+          <t>https://uk.linkedin.com/in/simon-tunmore-101834159</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/david-da-costa</t>
+          <t>https://uk.linkedin.com/in/charles-allatson-107538137</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/reubenosborne</t>
+          <t>https://uk.linkedin.com/in/markwinterbottom</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/abbas123456</t>
+          <t>https://uk.linkedin.com/in/brunoalla/en</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/joshua-shallow-4887a660</t>
+          <t>https://uk.linkedin.com/in/joshua-munn</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/shaunick-mistry-723aa052</t>
+          <t>https://uk.linkedin.com/in/mitchk1609</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/ahmedbafadal</t>
+          <t>https://uk.linkedin.com/in/madeline-mclean-bb9301168</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/cal-paterson-290a2730</t>
+          <t>https://uk.linkedin.com/in/joe-mortimer-3b2aaa16b</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/nik-sarychev</t>
+          <t>https://uk.linkedin.com/in/juanjoseveratorres</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/michaelrobinson5</t>
+          <t>https://uk.linkedin.com/in/fuccimarco</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://za.linkedin.com/in/antonio-london-7415562a</t>
+          <t>https://uk.linkedin.com/in/kenan-mcgrath-09575957</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/ash-isbitt-336888156</t>
+          <t>https://uk.linkedin.com/in/remipetitjean</t>
         </is>
       </c>
     </row>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/bugsett</t>
+          <t>https://uk.linkedin.com/in/elly-van-den-bos-538050168</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/ismail-m-2a7454108</t>
+          <t>https://uk.linkedin.com/in/joebutton</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/henri-woodcock</t>
+          <t>https://uk.linkedin.com/in/aaron-smith-43bab3166</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/simon-tunmore-101834159</t>
+          <t>https://uk.linkedin.com/in/lewisbaker</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/mgadikar</t>
+          <t>https://uk.linkedin.com/in/0harsh</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/joe-gasewicz-0291451a7</t>
+          <t>https://uk.linkedin.com/in/harry-kitchener</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/elena-onose</t>
+          <t>https://uk.linkedin.com/in/sharjeel-jan</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/kie-woo-nam</t>
+          <t>https://pk.linkedin.com/in/farhan-khan-288b6a141</t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/salimfadhley</t>
+          <t>https://www.linkedin.com/in/jennifer-s-0a8b2a18b</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/natalia-kapralova-84493718</t>
+          <t>https://uk.linkedin.com/in/mrcolinbowen</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/beltramiester</t>
+          <t>https://uk.linkedin.com/in/muiredach-oriain</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/billjwatts</t>
+          <t>https://uk.linkedin.com/in/john100x1</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/ramis-karamatov-a40b925b</t>
+          <t>https://uk.linkedin.com/in/ishwarya-chandramouleeswaran-7826b178</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/markwinterbottom</t>
+          <t>https://uk.linkedin.com/in/pallavi-matkar-4a792529</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/jakub-hudak-97739ba7</t>
+          <t>https://uk.linkedin.com/in/domantasjackunas</t>
         </is>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/dinesh-samtani-1906775</t>
+          <t>https://uk.linkedin.com/in/daniel-adams-n</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/singletoned</t>
+          <t>https://uk.linkedin.com/in/svetoslav-kazandzhiev-38ba251b1</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/joseph-houghton</t>
+          <t>https://uk.linkedin.com/in/danielgunn</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/charles-allatson-107538137</t>
+          <t>https://uk.linkedin.com/in/ankit-haroon-16052751</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/brunoalla/en</t>
+          <t>https://uk.linkedin.com/in/vishal-sharma-106b21b</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/joshua-munn</t>
+          <t>https://uk.linkedin.com/in/roy-hanley-10747365</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/bethanhutt</t>
+          <t>https://uk.linkedin.com/in/ahmed-hashi-7830941a8</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/mitchk1609</t>
+          <t>https://uk.linkedin.com/in/tianshu-li-329058190</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/joe-mortimer-3b2aaa16b</t>
+          <t>https://uk.linkedin.com/in/andrew-grytsenko-3019813a</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/madeline-mclean-bb9301168</t>
+          <t>https://uk.linkedin.com/in/marcus-pennington-29a7735a</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/juanjoseveratorres</t>
+          <t>https://uk.linkedin.com/in/tosin-adesanya-54034140</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/fuccimarco</t>
+          <t>https://uk.linkedin.com/in/drpauldelaney</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/remipetitjean</t>
+          <t>https://uk.linkedin.com/in/mchouza</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,1897 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/elly-van-den-bos-538050168</t>
+          <t>https://uk.linkedin.com/in/ramdaskarinje</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/hadi-wibawa-09601083</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/leandro-fortunato</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://ca.linkedin.com/in/ygor-lopez-rezende/en</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/sarah-louise-3ab271185</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/tojocherian</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/gavin-lee-goodship-2a2498187</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/alex-rogers-6989b9107</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/brsbilgic</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/pawel-bielecki-pawciobiel</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/chakkapas-visavakul-6a054837</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/amarjot-chohan</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/orlando-murru-a079522b</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/darianmoody</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/zeshaan-zaidi-17211757</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/vicramkotecha</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/mishbah</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/magdalena-gajewska-962697</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/max-awan-b6b12096</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/meganlbates</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/timothy-benger-532b3298</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/rashmi-amatigowdar-6b5828209</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/meitham</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/jescartin</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/hanchan</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://ro.linkedin.com/in/andrei-iusan-0525b94b/en</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/peter-bartfay-9b779738</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/jamesadvincent</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/kenneth-dlamini-a63871141</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/matt-pavord-b967bb177</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/asisharyal</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/ralph-jeffers-a73666122</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/denis-pushkarenko-621048160</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/chrishannam</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/hassan-khan-4961b722b?trk=public_profile_browsemap</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/lee-stennett-17202062</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/dharmik-panchal-951278b6</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/muhammadmrahman</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/gideon-gray-96453561</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/tirso-rodr%C3%ADguez-velasco-0aaa3158</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/andrew-diver-9b301526</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/rahul-reynolds-0a0741b4</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/edwardprentice</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/julian-brendel/</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/fabio-pachelli-pacheco-a8102240</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/chvenkat</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/filip-muncan</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/betran-jacob</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/manesh-o-m-37928879</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/gordonwrigley</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://ca.linkedin.com/in/d-dillman-kelsey-437a45231</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/martin-mi%C5%A1kuf</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/in/hinal-patel-1012</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/jwascroftleigh</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/brandonjakeharrison</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/abbas-khan-ab0620166</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/reza-torfi-9a7094a6</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/phineas-campbell-51611831</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/marwanibrahim97</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/alexander-jc-brown?trk=public_profile_browsemap</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/aidartalibzhanov</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/scott-white-6a377a5a</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/alina-romantsova-06ab06128</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/yikangmao</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/salma-ashraf</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/pointtonull/en</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/adam-goldstein-09273a176</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/artemnepo</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/kingsley-ejeutanni-40857b148</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/christos-liontos-252b7485</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/wiaterb</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/bob-reduk-444a501b9</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/magda-mach-gapska-2576967b</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/leevi-kerkela</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/leo-hemsted-2ba48538</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/venkir</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/dj-1238374648</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/john-garner-78030a1</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/rut-patel-39488157</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/haseeb-islam-44123a124</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/jay-shah-b573b349</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/farhan-aslam-573120a5</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/rameshkumar-ramasamy-71507461</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/muhammad-tanveer-sultan-bb3a90166</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/sinan-mehmedov-08479427</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://pl.linkedin.com/in/annalipiarz</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/alastairlogan</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/shabnam-thakur-262a95183?trk=people-guest_people_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/marvyn-da-silva-santos-358a8192</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/ruggero-piazza-b6085530</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/robert-superty-894a0421</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/thejus-mambatta-375b771</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/reuven-levene-17526316</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/giuseppecunsolo</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/florianeinfalt</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/maarif1430</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/vivian-allen-83b660147</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>https://ca.linkedin.com/in/rooha-shahid?trk=public_profile_browsemap</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/lucaromagnoli79</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/johnedwardlawson</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/stephanie-jones-b3bb8870</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/usama-naveed-877817189?trk=people-guest_people_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/stephen-maddock-a429996</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/mishrarishi</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/nelson-allain-25357322</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/fabiosramalho</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/daniel-adewale-9314891a1</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/tzvetkovsvetoslav</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/dhruve-patel-783526123</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/khalidriaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/in/sandeepwalia95</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/david-s-0b825631</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/brezniczky</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/laszlorozsahegyi</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/lyndonbrown</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/nicholas-karatarakis-80179a24</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/jonathan-li-37597881</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/csabapalankai</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/umarjaved56</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/martinmarsh</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/salmantahir786</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/benedict-carling</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/uttamo</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/john-papanastasiou-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/stefan-kemp</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/david-mclean-12675b176</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/charliemiller93</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/drachenfels</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/gkdogar123</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/moshtaba-mustan-</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/vvitvitskyi</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/sidharthathogari09</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/ivan-popov1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/yilu-zhu-15609711</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/ch-usama-439236142</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/piotr-mazurek-7a335954</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/julian-h-b82b171?trk=public_profile_samename-profile</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/kumar-p-2a018214b</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/billy-madlela-27aa7a27</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/manishasshetty</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/nickmpowell</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/tonycsoka</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>https://pk.linkedin.com/in/atif-raza-097507194</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/george-chara</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/vitali-mueller-70000b69/en</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/john-smith-2b10a8194</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/jack-brazier-571b9010b</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/adamknoetze</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/bhagyalakshmiregatipally</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/debith</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>https://ca.linkedin.com/in/mariyasha888</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/dulebakarol</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/shahab-munir-870b8417b</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/syed-qayum-87866a151</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/nicolettabruno/en</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/paulfraval</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/alextill</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/ansir-uddin-a5461494</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/asaf-lerner-975b913b</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/zach-sivell-416814a6</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/nuh-mire-09b738100</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/marek-alexa-b253381a1</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/richworsley</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/pedrocurado</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/ronil-shah-1071a5109</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/gabrielcnr</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/corina-anton-8672b5172</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/muhammad-shahzaib-choudhry-6a38b7126</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/dswistowski</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/timothy-jones-305</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/robin-reichel-5ba6a7209</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/mark-brady-3473a396</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/gemmahentsch</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/edwardwm</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/daniel-samet</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/manuel-chavez-ayala-50971386</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/antonio-forgione-09194258/en</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/haffi-mazhar-a59818154</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/max-kreil-825a4a179</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/claudia-westby-b2a957151</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/ismail-m-2a7454108</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/ksrameshkanth</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/nikolai-matiushev-1958655</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/lukaszlakomy</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/maclinkallat</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/fazaan-hassan</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/liam-evans-5b28047b</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/alexmariaenache</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/asad-majeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/in/dr-b-nithya-rajmohan-5b720161</t>
         </is>
       </c>
     </row>
